--- a/Phân công công việc_Bai1_QLNhanSu.xlsx
+++ b/Phân công công việc_Bai1_QLNhanSu.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Quản lý nhân sự</t>
-  </si>
-  <si>
     <t>Thiết kế CSDL,thiết kế chương trình(chương trình chạy với mô hình gì?)</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Người đảm nhận</t>
+  </si>
+  <si>
+    <t>Xây dưng phần mềm Quản lý nhân sự</t>
   </si>
 </sst>
 </file>
@@ -417,29 +417,30 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -447,10 +448,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -458,10 +459,10 @@
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -469,10 +470,10 @@
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,10 +481,10 @@
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,10 +492,10 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -502,10 +503,10 @@
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
